--- a/server/price.xlsx
+++ b/server/price.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE8E7B3-2B24-426D-AAA7-6BB5FDAFBC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6386FB9-AE36-4D8F-8FFD-6ADE451F9CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11925" yWindow="4965" windowWidth="23055" windowHeight="24375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Массаж</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Детский массаж проводится не только в общеукрепляющих профилактических целях, но и в лечебных. Нередко у детей встречаются различные нарушения в развитии: сколиоз, кривошея, плоскостопие, вальгусная деформация стоп, косолапость, нарушения центральной нервной системы и другие. В этом случае правильный детский массаж может быть эффективным решением возникшей проблемы.</t>
-  </si>
-  <si>
-    <t>Сегментарный массаж</t>
   </si>
   <si>
     <t>Массаж головы</t>
@@ -541,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +724,9 @@
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="3">
+        <v>2000</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
@@ -737,7 +736,9 @@
         <v>27</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="3">
+        <v>500</v>
+      </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -746,7 +747,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -776,7 +777,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -796,7 +797,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -806,7 +807,7 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -856,7 +857,7 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -866,7 +867,7 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -896,19 +897,9 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3">
-        <v>700</v>
-      </c>
-      <c r="D31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
